--- a/Logiciel_test/test.xlsx
+++ b/Logiciel_test/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxence\Desktop\Calib jauge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxence\Desktop\Logiciel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Résumé" sheetId="1" r:id="rId1"/>
@@ -637,6 +637,36 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>Valeur!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Valeur!$F$2:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -661,36 +691,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Valeur!$G$2:$G$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,8 +755,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Pression</a:t>
+                  <a:t>Valeur</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> de lecture (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -873,7 +878,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Valeur de lecture</a:t>
+                  <a:t>Pression (Torr)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1554,16 +1559,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1850,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,21 +1927,21 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>CONCATENATE("A=",Valeur!B7)</f>
-        <v>A=0.00334637939654745</v>
+        <v>A=298.824601722362</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>CONCATENATE("B=",Valeur!C7)</f>
-        <v>B=0.00357630820822091</v>
+        <v>B=-1.06587797943317</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <f>Valeur!B7</f>
-        <v>3.3463793965474468E-3</v>
+        <v>298.82460172236244</v>
       </c>
       <c r="C8" s="16">
         <f>Valeur!C7</f>
-        <v>3.576308208220913E-3</v>
+        <v>-1.0658779794331679</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -2012,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,12 +2185,12 @@
         <v>0</v>
       </c>
       <c r="B7" s="16">
-        <f>SLOPE(G2:G9,F2:F9)</f>
-        <v>3.3463793965474468E-3</v>
+        <f>SLOPE(F2:F9,G2:G9)</f>
+        <v>298.82460172236244</v>
       </c>
       <c r="C7" s="16">
-        <f>INTERCEPT(G2:G9,F2:F9)</f>
-        <v>3.576308208220913E-3</v>
+        <f>INTERCEPT(F2:F9,G2:G9)</f>
+        <v>-1.0658779794331679</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
